--- a/data/output/set50/high_noisy/results/psnr.xlsx
+++ b/data/output/set50/high_noisy/results/psnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16414E8-0F73-4078-BDBF-7E94385FC9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED67F7D0-C6AD-4171-B8C7-D11695FA5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>psnr_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>psnr_bm3d</t>
+  </si>
+  <si>
+    <t>psnr_dual</t>
   </si>
 </sst>
 </file>
@@ -414,577 +417,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>27.055125230000002</v>
+      </c>
+      <c r="B2">
         <v>32.276154140000003</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>33.411136429999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>34.896376199999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>26.74787808</v>
+      </c>
+      <c r="B3">
         <v>30.803184479999999</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>31.94490322</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>33.133481089999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>25.721080220000001</v>
+      </c>
+      <c r="B4">
         <v>29.8994784</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>30.822773680000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31.888871460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>26.228191899999999</v>
+      </c>
+      <c r="B5">
         <v>30.40303518</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>31.21691809</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>31.605835429999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>25.503093740000001</v>
+      </c>
+      <c r="B6">
         <v>29.917662369999999</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>30.758808429999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>31.847021900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>25.672323309999999</v>
+      </c>
+      <c r="B7">
         <v>30.171216510000001</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>31.21685403</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>32.485099990000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>26.12342688</v>
+      </c>
+      <c r="B8">
         <v>28.84998422</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>29.799029959999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30.315934550000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>26.187918230000001</v>
+      </c>
+      <c r="B9">
         <v>27.87151647</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>28.957801910000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>29.149796689999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>27.336064329999999</v>
+      </c>
+      <c r="B10">
         <v>29.73231414</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>30.800007770000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>31.726082049999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>26.03711294</v>
+      </c>
+      <c r="B11">
         <v>28.729805649999999</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>29.47278944</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>29.34085357</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>26.32087035</v>
+      </c>
+      <c r="B12">
         <v>31.61282542</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>32.461202049999997</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>34.001326509999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>27.222181379999999</v>
+      </c>
+      <c r="B13">
         <v>28.896309479999999</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>29.55789721</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>29.59907033</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>26.628023800000001</v>
+      </c>
+      <c r="B14">
         <v>28.733420410000001</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>29.882489979999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>30.308134630000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>26.17912595</v>
+      </c>
+      <c r="B15">
         <v>29.779251980000002</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>30.945633470000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>32.274643589999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>25.322383540000001</v>
+      </c>
+      <c r="B16">
         <v>25.961001960000001</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>26.828797990000002</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>26.17548631</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>25.545682769999999</v>
+      </c>
+      <c r="B17">
         <v>27.25161889</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>28.18084069</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>28.68449665</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>25.330006170000001</v>
+      </c>
+      <c r="B18">
         <v>26.187795690000002</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>26.862726089999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>25.42904111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>26.536697520000001</v>
+      </c>
+      <c r="B19">
         <v>26.567091349999998</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>27.924918659999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>28.061572930000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>25.649504189999998</v>
+      </c>
+      <c r="B20">
         <v>26.730230240000001</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>27.428433269999999</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>25.04929139</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>26.68389998</v>
+      </c>
+      <c r="B21">
         <v>28.725808189999999</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>29.853034350000001</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>30.434285039999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>25.545474850000002</v>
+      </c>
+      <c r="B22">
         <v>27.599607800000001</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>28.604473890000001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>29.059379320000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>25.751300409999999</v>
+      </c>
+      <c r="B23">
         <v>29.681425059999999</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>30.39827696</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>31.243182730000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>25.55895379</v>
+      </c>
+      <c r="B24">
         <v>28.824527710000002</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>29.087591199999999</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>27.858979959999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>26.071683499999999</v>
+      </c>
+      <c r="B25">
         <v>33.17350502</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>33.586266590000001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>35.413487840000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>26.13300654</v>
+      </c>
+      <c r="B26">
         <v>30.69735</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>31.339051399999999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>32.541845039999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26.081431510000002</v>
+      </c>
+      <c r="B27">
         <v>32.903305760000002</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>32.951436880000003</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>34.7758088</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>25.451833969999999</v>
+      </c>
+      <c r="B28">
         <v>30.833293340000001</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>31.33122131</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>32.614062259999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>26.10893583</v>
+      </c>
+      <c r="B29">
         <v>32.881159240000002</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>33.104698550000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>34.104653429999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>25.610426830000002</v>
+      </c>
+      <c r="B30">
         <v>30.88341643</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>31.2889087</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>32.318988419999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>25.733550080000001</v>
+      </c>
+      <c r="B31">
         <v>25.727092540000001</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>27.18842115</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>26.42356191</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>26.10088545</v>
+      </c>
+      <c r="B32">
         <v>28.268617880000001</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>29.46933628</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>29.864470900000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>25.54653163</v>
+      </c>
+      <c r="B33">
         <v>25.862269900000001</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>26.457165960000001</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>25.09805325</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>26.586508479999999</v>
+      </c>
+      <c r="B34">
         <v>27.473377299999999</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>28.7020032</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>28.129212800000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>25.70177425</v>
+      </c>
+      <c r="B35">
         <v>28.570226829999999</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>29.594149040000001</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>30.055406829999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>25.785502309999998</v>
+      </c>
+      <c r="B36">
         <v>27.741911510000001</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>28.94248309</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>29.352774019999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>25.871158250000001</v>
+      </c>
+      <c r="B37">
         <v>30.333569059999999</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>31.040677110000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>31.756233309999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>26.312546919999999</v>
+      </c>
+      <c r="B38">
         <v>27.931918459999999</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>29.505660200000001</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>30.051876579999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>25.167697740000001</v>
+      </c>
+      <c r="B39">
         <v>28.215478359999999</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>28.997017320000001</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>29.36409098</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>25.7074994</v>
+      </c>
+      <c r="B40">
         <v>30.276732110000001</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>31.01569413</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>32.161562000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>26.054348210000001</v>
+      </c>
+      <c r="B41">
         <v>32.197989339999999</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>32.141048519999998</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>33.526365200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>25.486215690000002</v>
+      </c>
+      <c r="B42">
         <v>31.68867247</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>31.951766809999999</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>33.508129760000003</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>25.92780248</v>
+      </c>
+      <c r="B43">
         <v>29.61997191</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>30.879513159999998</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>31.88397119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>25.764158340000002</v>
+      </c>
+      <c r="B44">
         <v>29.669776049999999</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>30.606676499999999</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>28.807319199999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>26.162938759999999</v>
+      </c>
+      <c r="B45">
         <v>29.938752019999999</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>31.306225319999999</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>32.366491449999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>25.075447100000002</v>
+      </c>
+      <c r="B46">
         <v>24.960513460000001</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>25.23663578</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>20.064592990000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>25.912440530000001</v>
+      </c>
+      <c r="B47">
         <v>29.233268379999998</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>30.32574099</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>31.164040759999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>25.613235240000002</v>
+      </c>
+      <c r="B48">
         <v>27.000718200000001</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>28.20266655</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>28.200492270000002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>25.44511881</v>
+      </c>
+      <c r="B49">
         <v>26.45201947</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>27.629377000000002</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>27.62032628</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>26.208813580000001</v>
+      </c>
+      <c r="B50">
         <v>30.509341160000002</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>31.702189650000001</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>33.016042300000002</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>26.104154510000001</v>
+      </c>
+      <c r="B51">
         <v>28.425148270000001</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>28.644745520000001</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>27.191334049999998</v>
       </c>
     </row>
